--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2541.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2541.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.448081836731414</v>
+        <v>1.779013514518738</v>
       </c>
       <c r="B1">
-        <v>2.769865443966257</v>
+        <v>2.283915042877197</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.463985204696655</v>
       </c>
       <c r="D1">
-        <v>1.304806605179623</v>
+        <v>6.540905952453613</v>
       </c>
       <c r="E1">
-        <v>1.127810964645845</v>
+        <v>0.7693328261375427</v>
       </c>
     </row>
   </sheetData>
